--- a/data/trans_bre/IP2004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>-36,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>182,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,37%</t>
+          <t>-66,55%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,2</t>
+          <t>-3,7; 1,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,05</t>
+          <t>-1,79; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,8</t>
+          <t>-0,1; 4,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,95</t>
+          <t>-4,63; 0,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 120,97</t>
+          <t>-79,56; 82,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 112,27</t>
+          <t>-68,71; 344,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 189,49</t>
+          <t>-33,09; 1235,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,96; 62,26</t>
+          <t>-100,0; 54,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-36,48%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>182,41%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-66,55%</t>
+          <t>-31,37%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,37</t>
+          <t>-2,13; 4,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,41</t>
+          <t>-2,19; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,36</t>
+          <t>-1,24; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,1</t>
+          <t>-2,6; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-79,56; 82,46</t>
+          <t>-33,33; 120,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 344,81</t>
+          <t>-35,83; 112,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 1235,89</t>
+          <t>-32,76; 189,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,79</t>
+          <t>-74,96; 62,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,12 +620,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,17 +635,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,39</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,48%</t>
+          <t>-8,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>127,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>182,41%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-66,55%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,37</t>
+          <t>-1,54; 1,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,41</t>
+          <t>-0,62; 3,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,36</t>
+          <t>0,0; 3,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,1</t>
+          <t>-5,82; -1,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-79,56; 82,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-68,71; 344,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,09; 1235,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,79</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>-14,15%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>-33,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,08%</t>
+          <t>114,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-31,37%</t>
+          <t>-18,33%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 4,2</t>
+          <t>-5,3; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 4,05</t>
+          <t>-5,59; 1,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,8</t>
+          <t>-0,44; 5,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,95</t>
+          <t>-3,01; 2,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 120,97</t>
+          <t>-67,95; 94,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 112,27</t>
+          <t>-82,66; 104,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 189,49</t>
+          <t>-25,74; 510,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,96; 62,26</t>
+          <t>-80,99; 241,61</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-46,48%</t>
+          <t>-28,71%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,86</t>
+          <t>-2,86; 5,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,15</t>
+          <t>-2,04; 6,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 2,59</t>
+          <t>-3,21; 3,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,19</t>
+          <t>-3,01; 1,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 78,06</t>
+          <t>-42,4; 145,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,86; 113,67</t>
+          <t>-32,68; 242,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 229,47</t>
+          <t>-55,22; 139,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,86; 17,76</t>
+          <t>-83,42; 120,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>72,81%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-46,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 1,77</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 2,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,1; 2,58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 0,13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-33,13; 75,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-26,31; 122,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-10,22; 244,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-78,01; 10,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP2004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,26</t>
+          <t>0,0; 4,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,09</t>
+          <t>-1,39; 1,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,33</t>
+          <t>-0,68; 3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,45</t>
+          <t>0,0; 3,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,82; -1,02</t>
+          <t>-5,87; -1,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,72; 411,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,43; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,08</t>
+          <t>-4,82; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 1,65</t>
+          <t>-5,12; 1,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,54</t>
+          <t>-0,4; 5,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,24</t>
+          <t>-3,08; 2,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,95; 94,36</t>
+          <t>-62,91; 128,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,66; 104,96</t>
+          <t>-85,15; 92,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 510,2</t>
+          <t>-19,65; 506,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-80,99; 241,61</t>
+          <t>-82,36; 246,37</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 5,28</t>
+          <t>-2,71; 5,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 6,54</t>
+          <t>-1,99; 6,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 3,83</t>
+          <t>-3,5; 4,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,31</t>
+          <t>-2,66; 1,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,4; 145,13</t>
+          <t>-40,03; 144,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,68; 242,04</t>
+          <t>-33,98; 221,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-55,22; 139,16</t>
+          <t>-56,72; 201,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-83,42; 120,62</t>
+          <t>-81,57; 118,52</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,77</t>
+          <t>-1,23; 1,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,17</t>
+          <t>-0,76; 2,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,58</t>
+          <t>-0,16; 2,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,13</t>
+          <t>-2,31; 0,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 75,54</t>
+          <t>-32,48; 80,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 122,92</t>
+          <t>-26,2; 129,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 244,2</t>
+          <t>-11,09; 234,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-78,01; 10,72</t>
+          <t>-77,27; 24,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP2004-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP2004-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les sangran las encias al cepillarse</t>
+          <t>Menores a los que les sangran las encías</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,16</t>
+          <t>-1,41; 1,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 3,28</t>
+          <t>-0,42; 3,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,22</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,87; -1,06</t>
+          <t>-5,43; -0,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-85,72; 411,35</t>
+          <t>-88,93; 362,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,43; —</t>
+          <t>-50,94; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-18,33%</t>
+          <t>-18,5%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 3,73</t>
+          <t>-5,08; 3,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 1,66</t>
+          <t>-4,43; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,7</t>
+          <t>-0,5; 5,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,14</t>
+          <t>-2,86; 2,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,91; 128,76</t>
+          <t>-65,98; 105,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,15; 92,08</t>
+          <t>-79,08; 113,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 506,63</t>
+          <t>-27,12; 495,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-82,36; 246,37</t>
+          <t>-80,37; 234,04</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-28,71%</t>
+          <t>-35,68%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 5,38</t>
+          <t>-2,78; 5,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,19</t>
+          <t>-1,82; 6,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,42</t>
+          <t>-3,07; 4,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 1,5</t>
+          <t>-3,12; 1,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 144,53</t>
+          <t>-37,21; 145,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 221,01</t>
+          <t>-30,1; 201,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-56,72; 201,95</t>
+          <t>-53,76; 211,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-81,57; 118,52</t>
+          <t>-85,1; 96,46</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-46,48%</t>
+          <t>-48,9%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,92</t>
+          <t>-1,33; 1,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,23</t>
+          <t>-0,77; 2,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,63</t>
+          <t>-0,18; 2,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,28</t>
+          <t>-2,4; 0,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 80,1</t>
+          <t>-34,82; 78,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 129,61</t>
+          <t>-27,86; 113,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 234,45</t>
+          <t>-13,18; 229,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-77,27; 24,76</t>
+          <t>-78,1; 14,18</t>
         </is>
       </c>
     </row>
